--- a/AS NZS 4130 PE 100 Pressure Pipe_1.xlsx
+++ b/AS NZS 4130 PE 100 Pressure Pipe_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AS4130-HDPE-PIPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9E2C2B-BC04-4ED5-9040-6EB1B27ADBD8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5848085-45FB-4FD2-8CE3-CCA3E9FFA352}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{81522B2C-7D1A-4BB0-8402-D5DB4A9934E5}"/>
+    <workbookView xWindow="57480" yWindow="5760" windowWidth="38640" windowHeight="21240" xr2:uid="{81522B2C-7D1A-4BB0-8402-D5DB4A9934E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>Weight  Avg (kg/m)</t>
   </si>
@@ -98,12 +98,15 @@
   <si>
     <t>C = Design Factor</t>
   </si>
+  <si>
+    <t>https://github.com/IMEConsultants/AS4130-HDPE-PIPE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +145,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -536,11 +547,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -589,95 +601,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
@@ -1066,8 +1080,8 @@
   </sheetPr>
   <dimension ref="A2:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC13" sqref="AC13"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,103 +1126,103 @@
     </row>
     <row r="5" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="40">
         <v>4</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="33">
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43">
         <v>6.3</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="38">
+      <c r="F6" s="41"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="40">
         <v>8</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="38">
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="40">
         <v>10</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="38">
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="40">
         <v>12.5</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="33">
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="43">
         <v>16</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="38">
+      <c r="R6" s="41"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="40">
         <v>20</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="33">
+      <c r="U6" s="41"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="43">
         <v>25</v>
       </c>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
       <c r="Z6" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="37">
         <v>41</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="34">
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="45">
         <v>26</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="40">
+      <c r="F7" s="38"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="37">
         <v>21</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="40">
+      <c r="I7" s="38"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="37">
         <v>17</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="40">
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="37">
         <v>13.6</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="34">
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="45">
         <v>11</v>
       </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="40">
+      <c r="R7" s="38"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="37">
         <v>9</v>
       </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="34">
+      <c r="U7" s="38"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="45">
         <v>7.4</v>
       </c>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
       <c r="Z7" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="9" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1220,13 +1234,13 @@
       <c r="D8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="28" t="s">
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -1256,13 +1270,13 @@
       <c r="P8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="Q8" s="35" t="s">
+      <c r="Q8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="R8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="28" t="s">
         <v>0</v>
       </c>
       <c r="T8" s="10" t="s">
@@ -1274,7 +1288,7 @@
       <c r="V8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="W8" s="35" t="s">
+      <c r="W8" s="25" t="s">
         <v>2</v>
       </c>
       <c r="X8" s="11" t="s">
@@ -1294,9 +1308,9 @@
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="36"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="45"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
@@ -1306,13 +1320,13 @@
       <c r="N9" s="2"/>
       <c r="O9" s="3"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="36">
+      <c r="Q9" s="26">
         <v>1.6</v>
       </c>
       <c r="R9" s="3">
         <v>12.7</v>
       </c>
-      <c r="S9" s="45">
+      <c r="S9" s="29">
         <v>0.08</v>
       </c>
       <c r="T9" s="2">
@@ -1324,7 +1338,7 @@
       <c r="V9" s="4">
         <v>0.08</v>
       </c>
-      <c r="W9" s="36">
+      <c r="W9" s="26">
         <v>2.2000000000000002</v>
       </c>
       <c r="X9" s="3">
@@ -1344,9 +1358,9 @@
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="36"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="45"/>
+      <c r="G10" s="29"/>
       <c r="H10" s="2"/>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
@@ -1362,13 +1376,13 @@
       <c r="P10" s="4">
         <v>0.1</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="26">
         <v>1.9</v>
       </c>
       <c r="R10" s="3">
         <v>16</v>
       </c>
-      <c r="S10" s="45">
+      <c r="S10" s="29">
         <v>0.11</v>
       </c>
       <c r="T10" s="2">
@@ -1380,7 +1394,7 @@
       <c r="V10" s="4">
         <v>0.13</v>
       </c>
-      <c r="W10" s="36">
+      <c r="W10" s="26">
         <v>2.8</v>
       </c>
       <c r="X10" s="3">
@@ -1400,9 +1414,9 @@
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="36"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="45"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4">
@@ -1424,13 +1438,13 @@
       <c r="P11" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="26">
         <v>2.2999999999999998</v>
       </c>
       <c r="R11" s="3">
         <v>20.2</v>
       </c>
-      <c r="S11" s="45">
+      <c r="S11" s="29">
         <v>0.17</v>
       </c>
       <c r="T11" s="2">
@@ -1442,7 +1456,7 @@
       <c r="V11" s="4">
         <v>0.2</v>
       </c>
-      <c r="W11" s="36">
+      <c r="W11" s="26">
         <v>3.5</v>
       </c>
       <c r="X11" s="3">
@@ -1462,9 +1476,9 @@
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="36"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="45">
+      <c r="G12" s="29">
         <v>1.6</v>
       </c>
       <c r="H12" s="2"/>
@@ -1492,13 +1506,13 @@
       <c r="P12" s="4">
         <v>0.23</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="26">
         <v>2.9</v>
       </c>
       <c r="R12" s="3">
         <v>26</v>
       </c>
-      <c r="S12" s="45">
+      <c r="S12" s="29">
         <v>0.27</v>
       </c>
       <c r="T12" s="2">
@@ -1510,7 +1524,7 @@
       <c r="V12" s="4">
         <v>0.33</v>
       </c>
-      <c r="W12" s="36">
+      <c r="W12" s="26">
         <v>4.4000000000000004</v>
       </c>
       <c r="X12" s="3">
@@ -1530,9 +1544,9 @@
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="36"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="45">
+      <c r="G13" s="29">
         <v>1.9</v>
       </c>
       <c r="H13" s="2"/>
@@ -1560,13 +1574,13 @@
       <c r="P13" s="4">
         <v>0.36</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="26">
         <v>3.7</v>
       </c>
       <c r="R13" s="3">
         <v>32.299999999999997</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S13" s="29">
         <v>0.43</v>
       </c>
       <c r="T13" s="2">
@@ -1578,7 +1592,7 @@
       <c r="V13" s="4">
         <v>0.52</v>
       </c>
-      <c r="W13" s="36">
+      <c r="W13" s="26">
         <v>5.5</v>
       </c>
       <c r="X13" s="3">
@@ -1598,9 +1612,9 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="36"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="45">
+      <c r="G14" s="29">
         <v>2.4</v>
       </c>
       <c r="H14" s="2"/>
@@ -1628,13 +1642,13 @@
       <c r="P14" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="26">
         <v>4.5999999999999996</v>
       </c>
       <c r="R14" s="3">
         <v>40.4</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="29">
         <v>0.67</v>
       </c>
       <c r="T14" s="2">
@@ -1646,7 +1660,7 @@
       <c r="V14" s="4">
         <v>0.8</v>
       </c>
-      <c r="W14" s="36">
+      <c r="W14" s="26">
         <v>6.9</v>
       </c>
       <c r="X14" s="3">
@@ -1668,11 +1682,11 @@
       <c r="D15" s="4">
         <v>2.4</v>
       </c>
-      <c r="E15" s="36"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="3">
         <v>58.1</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="29">
         <v>0.48</v>
       </c>
       <c r="H15" s="2">
@@ -1702,13 +1716,13 @@
       <c r="P15" s="4">
         <v>0.88</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="26">
         <v>5.8</v>
       </c>
       <c r="R15" s="3">
         <v>51</v>
       </c>
-      <c r="S15" s="45">
+      <c r="S15" s="29">
         <v>1.07</v>
       </c>
       <c r="T15" s="2">
@@ -1720,7 +1734,7 @@
       <c r="V15" s="4">
         <v>1.28</v>
       </c>
-      <c r="W15" s="36">
+      <c r="W15" s="26">
         <v>8.6</v>
       </c>
       <c r="X15" s="3">
@@ -1742,11 +1756,11 @@
       <c r="D16" s="4">
         <v>2.9</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="3">
         <v>69.2</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="29">
         <v>0.68</v>
       </c>
       <c r="H16" s="2">
@@ -1776,13 +1790,13 @@
       <c r="P16" s="4">
         <v>1.23</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="26">
         <v>6.8</v>
       </c>
       <c r="R16" s="3">
         <v>61</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="29">
         <v>1.49</v>
       </c>
       <c r="T16" s="2">
@@ -1794,7 +1808,7 @@
       <c r="V16" s="4">
         <v>1.79</v>
       </c>
-      <c r="W16" s="36">
+      <c r="W16" s="26">
         <v>10.3</v>
       </c>
       <c r="X16" s="3">
@@ -1816,11 +1830,11 @@
       <c r="D17" s="4">
         <v>3.5</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="3">
         <v>83</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="29">
         <v>0.99</v>
       </c>
       <c r="H17" s="2">
@@ -1850,13 +1864,13 @@
       <c r="P17" s="4">
         <v>1.77</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="26">
         <v>8.1999999999999993</v>
       </c>
       <c r="R17" s="3">
         <v>73</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="29">
         <v>2.16</v>
       </c>
       <c r="T17" s="2">
@@ -1868,7 +1882,7 @@
       <c r="V17" s="4">
         <v>2.59</v>
       </c>
-      <c r="W17" s="36">
+      <c r="W17" s="26">
         <v>12.3</v>
       </c>
       <c r="X17" s="3">
@@ -1894,13 +1908,13 @@
       <c r="D18" s="4">
         <v>0.95</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="26">
         <v>4.3</v>
       </c>
       <c r="F18" s="3">
         <v>101.3</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="29">
         <v>1.48</v>
       </c>
       <c r="H18" s="2">
@@ -1930,13 +1944,13 @@
       <c r="P18" s="4">
         <v>2.66</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="26">
         <v>10</v>
       </c>
       <c r="R18" s="3">
         <v>89.4</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="29">
         <v>3.2</v>
       </c>
       <c r="T18" s="2">
@@ -1948,7 +1962,7 @@
       <c r="V18" s="4">
         <v>3.84</v>
       </c>
-      <c r="W18" s="36">
+      <c r="W18" s="26">
         <v>15.1</v>
       </c>
       <c r="X18" s="3">
@@ -1974,13 +1988,13 @@
       <c r="D19" s="4">
         <v>1.24</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="26">
         <v>4.8</v>
       </c>
       <c r="F19" s="3">
         <v>115.4</v>
       </c>
-      <c r="G19" s="45">
+      <c r="G19" s="29">
         <v>1.86</v>
       </c>
       <c r="H19" s="2">
@@ -2010,13 +2024,13 @@
       <c r="P19" s="4">
         <v>3.42</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="26">
         <v>11.4</v>
       </c>
       <c r="R19" s="3">
         <v>101.5</v>
       </c>
-      <c r="S19" s="45">
+      <c r="S19" s="29">
         <v>4.1500000000000004</v>
       </c>
       <c r="T19" s="2">
@@ -2028,7 +2042,7 @@
       <c r="V19" s="4">
         <v>4.96</v>
       </c>
-      <c r="W19" s="36">
+      <c r="W19" s="26">
         <v>17.100000000000001</v>
       </c>
       <c r="X19" s="3">
@@ -2054,13 +2068,13 @@
       <c r="D20" s="4">
         <v>1.56</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="26">
         <v>5.4</v>
       </c>
       <c r="F20" s="3">
         <v>129.19999999999999</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="29">
         <v>2.35</v>
       </c>
       <c r="H20" s="2">
@@ -2090,13 +2104,13 @@
       <c r="P20" s="4">
         <v>4.29</v>
       </c>
-      <c r="Q20" s="36">
+      <c r="Q20" s="26">
         <v>12.7</v>
       </c>
       <c r="R20" s="3">
         <v>113.9</v>
       </c>
-      <c r="S20" s="45">
+      <c r="S20" s="29">
         <v>5.17</v>
       </c>
       <c r="T20" s="2">
@@ -2108,7 +2122,7 @@
       <c r="V20" s="4">
         <v>6.23</v>
       </c>
-      <c r="W20" s="36">
+      <c r="W20" s="26">
         <v>19.2</v>
       </c>
       <c r="X20" s="3">
@@ -2134,13 +2148,13 @@
       <c r="D21" s="4">
         <v>2.02</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="26">
         <v>6.2</v>
       </c>
       <c r="F21" s="3">
         <v>147.6</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="29">
         <v>3.08</v>
       </c>
       <c r="H21" s="2">
@@ -2170,13 +2184,13 @@
       <c r="P21" s="4">
         <v>5.6</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="26">
         <v>14.6</v>
       </c>
       <c r="R21" s="3">
         <v>130</v>
       </c>
-      <c r="S21" s="45">
+      <c r="S21" s="29">
         <v>6.78</v>
       </c>
       <c r="T21" s="2">
@@ -2188,7 +2202,7 @@
       <c r="V21" s="4">
         <v>8.11</v>
       </c>
-      <c r="W21" s="36">
+      <c r="W21" s="26">
         <v>21.9</v>
       </c>
       <c r="X21" s="3">
@@ -2214,13 +2228,13 @@
       <c r="D22" s="4">
         <v>2.5099999999999998</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="26">
         <v>6.9</v>
       </c>
       <c r="F22" s="3">
         <v>166.3</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="29">
         <v>3.84</v>
       </c>
       <c r="H22" s="2">
@@ -2250,13 +2264,13 @@
       <c r="P22" s="4">
         <v>7.1</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="26">
         <v>16.399999999999999</v>
       </c>
       <c r="R22" s="3">
         <v>146.30000000000001</v>
       </c>
-      <c r="S22" s="45">
+      <c r="S22" s="29">
         <v>8.58</v>
       </c>
       <c r="T22" s="2">
@@ -2268,7 +2282,7 @@
       <c r="V22" s="4">
         <v>10.26</v>
       </c>
-      <c r="W22" s="36">
+      <c r="W22" s="26">
         <v>24.6</v>
       </c>
       <c r="X22" s="3">
@@ -2294,13 +2308,13 @@
       <c r="D23" s="4">
         <v>3.08</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="26">
         <v>7.7</v>
       </c>
       <c r="F23" s="3">
         <v>184.6</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="29">
         <v>4.76</v>
       </c>
       <c r="H23" s="2">
@@ -2330,13 +2344,13 @@
       <c r="P23" s="4">
         <v>8.7100000000000009</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="26">
         <v>18.2</v>
       </c>
       <c r="R23" s="3">
         <v>162.5</v>
       </c>
-      <c r="S23" s="45">
+      <c r="S23" s="29">
         <v>10.57</v>
       </c>
       <c r="T23" s="2">
@@ -2348,7 +2362,7 @@
       <c r="V23" s="4">
         <v>12.68</v>
       </c>
-      <c r="W23" s="36">
+      <c r="W23" s="26">
         <v>27.3</v>
       </c>
       <c r="X23" s="3">
@@ -2374,13 +2388,13 @@
       <c r="D24" s="4">
         <v>3.9</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="26">
         <v>8.6</v>
       </c>
       <c r="F24" s="3">
         <v>207.9</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="29">
         <v>5.98</v>
       </c>
       <c r="H24" s="2">
@@ -2410,13 +2424,13 @@
       <c r="P24" s="4">
         <v>11.06</v>
       </c>
-      <c r="Q24" s="36">
+      <c r="Q24" s="26">
         <v>20.5</v>
       </c>
       <c r="R24" s="3">
         <v>182.9</v>
       </c>
-      <c r="S24" s="45">
+      <c r="S24" s="29">
         <v>13.39</v>
       </c>
       <c r="T24" s="2">
@@ -2428,7 +2442,7 @@
       <c r="V24" s="4">
         <v>16</v>
       </c>
-      <c r="W24" s="36">
+      <c r="W24" s="26">
         <v>30.8</v>
       </c>
       <c r="X24" s="3">
@@ -2454,13 +2468,13 @@
       <c r="D25" s="4">
         <v>4.8899999999999997</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="26">
         <v>9.6</v>
       </c>
       <c r="F25" s="3">
         <v>230.9</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="29">
         <v>7.41</v>
       </c>
       <c r="H25" s="2">
@@ -2490,13 +2504,13 @@
       <c r="P25" s="4">
         <v>13.63</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="26">
         <v>22.7</v>
       </c>
       <c r="R25" s="3">
         <v>203.4</v>
       </c>
-      <c r="S25" s="45">
+      <c r="S25" s="29">
         <v>16.46</v>
       </c>
       <c r="T25" s="2">
@@ -2508,7 +2522,7 @@
       <c r="V25" s="4">
         <v>19.73</v>
       </c>
-      <c r="W25" s="36">
+      <c r="W25" s="26">
         <v>34.200000000000003</v>
       </c>
       <c r="X25" s="3">
@@ -2534,13 +2548,13 @@
       <c r="D26" s="4">
         <v>6.06</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="26">
         <v>10.7</v>
       </c>
       <c r="F26" s="3">
         <v>258.7</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="29">
         <v>9.25</v>
       </c>
       <c r="H26" s="2">
@@ -2570,13 +2584,13 @@
       <c r="P26" s="4">
         <v>17.079999999999998</v>
       </c>
-      <c r="Q26" s="36">
+      <c r="Q26" s="26">
         <v>25.4</v>
       </c>
       <c r="R26" s="3">
         <v>227.8</v>
       </c>
-      <c r="S26" s="45">
+      <c r="S26" s="29">
         <v>20.64</v>
       </c>
       <c r="T26" s="2">
@@ -2588,7 +2602,7 @@
       <c r="V26" s="4">
         <v>24.8</v>
       </c>
-      <c r="W26" s="36">
+      <c r="W26" s="26">
         <v>38.299999999999997</v>
       </c>
       <c r="X26" s="3">
@@ -2614,13 +2628,13 @@
       <c r="D27" s="4">
         <v>7.62</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="26">
         <v>12.1</v>
       </c>
       <c r="F27" s="3">
         <v>290.89999999999998</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="29">
         <v>11.78</v>
       </c>
       <c r="H27" s="2">
@@ -2650,13 +2664,13 @@
       <c r="P27" s="4">
         <v>21.64</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="26">
         <v>28.6</v>
       </c>
       <c r="R27" s="3">
         <v>256.3</v>
       </c>
-      <c r="S27" s="45">
+      <c r="S27" s="29">
         <v>26.13</v>
       </c>
       <c r="T27" s="2">
@@ -2668,7 +2682,7 @@
       <c r="V27" s="4">
         <v>31.38</v>
       </c>
-      <c r="W27" s="36">
+      <c r="W27" s="26">
         <v>43</v>
       </c>
       <c r="X27" s="3">
@@ -2694,13 +2708,13 @@
       <c r="D28" s="4">
         <v>9.69</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="26">
         <v>13.6</v>
       </c>
       <c r="F28" s="3">
         <v>327.9</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="29">
         <v>14.88</v>
       </c>
       <c r="H28" s="2">
@@ -2730,13 +2744,13 @@
       <c r="P28" s="4">
         <v>27.43</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="26">
         <v>32.200000000000003</v>
       </c>
       <c r="R28" s="3">
         <v>288.8</v>
       </c>
-      <c r="S28" s="45">
+      <c r="S28" s="29">
         <v>33.159999999999997</v>
       </c>
       <c r="T28" s="2">
@@ -2748,7 +2762,7 @@
       <c r="V28" s="4">
         <v>39.76</v>
       </c>
-      <c r="W28" s="36">
+      <c r="W28" s="26">
         <v>48.5</v>
       </c>
       <c r="X28" s="3">
@@ -2774,13 +2788,13 @@
       <c r="D29" s="4">
         <v>12.28</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="26">
         <v>15.3</v>
       </c>
       <c r="F29" s="3">
         <v>369.5</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="29">
         <v>18.88</v>
       </c>
       <c r="H29" s="2">
@@ -2810,13 +2824,13 @@
       <c r="P29" s="4">
         <v>34.79</v>
       </c>
-      <c r="Q29" s="36">
+      <c r="Q29" s="26">
         <v>36.299999999999997</v>
       </c>
       <c r="R29" s="3">
         <v>325.39999999999998</v>
       </c>
-      <c r="S29" s="45">
+      <c r="S29" s="29">
         <v>42.1</v>
       </c>
       <c r="T29" s="2">
@@ -2828,7 +2842,7 @@
       <c r="V29" s="4">
         <v>50.55</v>
       </c>
-      <c r="W29" s="36">
+      <c r="W29" s="26">
         <v>54.6</v>
       </c>
       <c r="X29" s="3">
@@ -2854,13 +2868,13 @@
       <c r="D30" s="4">
         <v>15.49</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="26">
         <v>17.2</v>
       </c>
       <c r="F30" s="3">
         <v>415.8</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="29">
         <v>23.87</v>
       </c>
       <c r="H30" s="2">
@@ -2890,13 +2904,13 @@
       <c r="P30" s="4">
         <v>44.07</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="Q30" s="26">
         <v>40.9</v>
       </c>
       <c r="R30" s="3">
         <v>366.1</v>
       </c>
-      <c r="S30" s="45">
+      <c r="S30" s="29">
         <v>53.31</v>
       </c>
       <c r="T30" s="2">
@@ -2908,7 +2922,7 @@
       <c r="V30" s="4">
         <v>63.9</v>
       </c>
-      <c r="W30" s="36">
+      <c r="W30" s="26">
         <v>61.5</v>
       </c>
       <c r="X30" s="3">
@@ -2934,13 +2948,13 @@
       <c r="D31" s="4">
         <v>19.28</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="26">
         <v>19.100000000000001</v>
       </c>
       <c r="F31" s="3">
         <v>462</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="29">
         <v>29.45</v>
       </c>
       <c r="H31" s="2">
@@ -2970,13 +2984,13 @@
       <c r="P31" s="4">
         <v>54.38</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="26">
         <v>45.4</v>
       </c>
       <c r="R31" s="3">
         <v>406.8</v>
       </c>
-      <c r="S31" s="45">
+      <c r="S31" s="29">
         <v>65.78</v>
       </c>
       <c r="T31" s="2">
@@ -2988,7 +3002,7 @@
       <c r="V31" s="4">
         <v>48.86</v>
       </c>
-      <c r="W31" s="36"/>
+      <c r="W31" s="26"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4">
@@ -3008,13 +3022,13 @@
       <c r="D32" s="4">
         <v>24</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="26">
         <v>21.4</v>
       </c>
       <c r="F32" s="3">
         <v>517.4</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="29">
         <v>36.909999999999997</v>
       </c>
       <c r="H32" s="2">
@@ -3044,13 +3058,13 @@
       <c r="P32" s="4">
         <v>68.22</v>
       </c>
-      <c r="Q32" s="36">
+      <c r="Q32" s="26">
         <v>50.8</v>
       </c>
       <c r="R32" s="3">
         <v>455.8</v>
       </c>
-      <c r="S32" s="45">
+      <c r="S32" s="29">
         <v>82.4</v>
       </c>
       <c r="T32" s="2">
@@ -3062,7 +3076,7 @@
       <c r="V32" s="4">
         <v>98.93</v>
       </c>
-      <c r="W32" s="36"/>
+      <c r="W32" s="26"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4">
@@ -3082,13 +3096,13 @@
       <c r="D33" s="4">
         <v>30.37</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="26">
         <v>24.1</v>
       </c>
       <c r="F33" s="3">
         <v>582.1</v>
       </c>
-      <c r="G33" s="45">
+      <c r="G33" s="29">
         <v>46.77</v>
       </c>
       <c r="H33" s="2">
@@ -3118,13 +3132,13 @@
       <c r="P33" s="4">
         <v>86.23</v>
       </c>
-      <c r="Q33" s="36">
+      <c r="Q33" s="26">
         <v>57.2</v>
       </c>
       <c r="R33" s="3">
         <v>512.6</v>
       </c>
-      <c r="S33" s="45">
+      <c r="S33" s="29">
         <v>104.42</v>
       </c>
       <c r="T33" s="2">
@@ -3136,7 +3150,7 @@
       <c r="V33" s="4">
         <v>125.2</v>
       </c>
-      <c r="W33" s="36"/>
+      <c r="W33" s="26"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4">
@@ -3156,13 +3170,13 @@
       <c r="D34" s="4">
         <v>38.65</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="26">
         <v>27.2</v>
       </c>
       <c r="F34" s="3">
         <v>655.9</v>
       </c>
-      <c r="G34" s="45">
+      <c r="G34" s="29">
         <v>59.45</v>
       </c>
       <c r="H34" s="2">
@@ -3192,13 +3206,13 @@
       <c r="P34" s="4">
         <v>109.55</v>
       </c>
-      <c r="Q34" s="36">
+      <c r="Q34" s="26">
         <v>64.5</v>
       </c>
       <c r="R34" s="3">
         <v>577.6</v>
       </c>
-      <c r="S34" s="45">
+      <c r="S34" s="29">
         <v>132.63999999999999</v>
       </c>
       <c r="T34" s="2">
@@ -3210,7 +3224,7 @@
       <c r="V34" s="4">
         <v>159.13</v>
       </c>
-      <c r="W34" s="36"/>
+      <c r="W34" s="26"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4">
@@ -3230,13 +3244,13 @@
       <c r="D35" s="4">
         <v>49.01</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="26">
         <v>30.6</v>
       </c>
       <c r="F35" s="3">
         <v>739.2</v>
       </c>
-      <c r="G35" s="45">
+      <c r="G35" s="29">
         <v>75.290000000000006</v>
       </c>
       <c r="H35" s="2">
@@ -3266,13 +3280,13 @@
       <c r="P35" s="4">
         <v>138.96</v>
       </c>
-      <c r="Q35" s="36">
+      <c r="Q35" s="26">
         <v>72.5</v>
       </c>
       <c r="R35" s="3">
         <v>651</v>
       </c>
-      <c r="S35" s="45">
+      <c r="S35" s="29">
         <v>168.11</v>
       </c>
       <c r="T35" s="2">
@@ -3284,7 +3298,7 @@
       <c r="V35" s="4">
         <v>201.9</v>
       </c>
-      <c r="W35" s="36"/>
+      <c r="W35" s="26"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4">
@@ -3304,13 +3318,13 @@
       <c r="D36" s="4">
         <v>61.81</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="26">
         <v>34.4</v>
       </c>
       <c r="F36" s="3">
         <v>831.7</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="29">
         <v>95.23</v>
       </c>
       <c r="H36" s="2">
@@ -3340,19 +3354,19 @@
       <c r="P36" s="4">
         <v>176.04</v>
       </c>
-      <c r="Q36" s="36">
+      <c r="Q36" s="26">
         <v>81.7</v>
       </c>
       <c r="R36" s="3">
         <v>732.4</v>
       </c>
-      <c r="S36" s="45">
+      <c r="S36" s="29">
         <v>212.91</v>
       </c>
       <c r="T36" s="2"/>
       <c r="U36" s="3"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="36"/>
+      <c r="W36" s="26"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4">
@@ -3372,13 +3386,13 @@
       <c r="D37" s="4">
         <v>76.540000000000006</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="26">
         <v>38.200000000000003</v>
       </c>
       <c r="F37" s="3">
         <v>924.1</v>
       </c>
-      <c r="G37" s="45">
+      <c r="G37" s="29">
         <v>117.5</v>
       </c>
       <c r="H37" s="2">
@@ -3408,19 +3422,19 @@
       <c r="P37" s="4">
         <v>214.41</v>
       </c>
-      <c r="Q37" s="36">
+      <c r="Q37" s="26">
         <v>90.3</v>
       </c>
       <c r="R37" s="3">
         <v>814.9</v>
       </c>
-      <c r="S37" s="45">
+      <c r="S37" s="29">
         <v>261.39999999999998</v>
       </c>
       <c r="T37" s="2"/>
       <c r="U37" s="3"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="36"/>
+      <c r="W37" s="26"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4">
@@ -3440,13 +3454,13 @@
       <c r="D38" s="4">
         <v>110.14</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="26">
         <v>45.9</v>
       </c>
       <c r="F38" s="3">
         <v>1108.5</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="29">
         <v>169.18</v>
       </c>
       <c r="H38" s="2">
@@ -3476,13 +3490,13 @@
       <c r="P38" s="4">
         <v>312.54000000000002</v>
       </c>
-      <c r="Q38" s="36"/>
+      <c r="Q38" s="26"/>
       <c r="R38" s="3"/>
-      <c r="S38" s="45"/>
+      <c r="S38" s="29"/>
       <c r="T38" s="2"/>
       <c r="U38" s="3"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="36"/>
+      <c r="W38" s="26"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4">
@@ -3502,13 +3516,13 @@
       <c r="D39" s="4">
         <v>150.19</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="26">
         <v>53.2</v>
       </c>
       <c r="F39" s="3">
         <v>1293.0999999999999</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="29">
         <v>239.54</v>
       </c>
       <c r="H39" s="2">
@@ -3532,13 +3546,13 @@
       <c r="N39" s="2"/>
       <c r="O39" s="3"/>
       <c r="P39" s="4"/>
-      <c r="Q39" s="36"/>
+      <c r="Q39" s="26"/>
       <c r="R39" s="3"/>
-      <c r="S39" s="45"/>
+      <c r="S39" s="29"/>
       <c r="T39" s="2"/>
       <c r="U39" s="3"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="36"/>
+      <c r="W39" s="26"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4">
@@ -3558,13 +3572,13 @@
       <c r="D40" s="4">
         <v>195.75</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="26">
         <v>61.3</v>
       </c>
       <c r="F40" s="3">
         <v>1476.1</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="29">
         <v>300.95</v>
       </c>
       <c r="H40" s="2">
@@ -3588,13 +3602,13 @@
       <c r="N40" s="2"/>
       <c r="O40" s="3"/>
       <c r="P40" s="4"/>
-      <c r="Q40" s="36"/>
+      <c r="Q40" s="26"/>
       <c r="R40" s="3"/>
-      <c r="S40" s="45"/>
+      <c r="S40" s="29"/>
       <c r="T40" s="2"/>
       <c r="U40" s="3"/>
       <c r="V40" s="4"/>
-      <c r="W40" s="36"/>
+      <c r="W40" s="26"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4">
@@ -3612,13 +3626,13 @@
         <v>1716</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41" s="36">
+      <c r="E41" s="26">
         <v>69.099999999999994</v>
       </c>
       <c r="F41" s="3">
         <v>1662.8</v>
       </c>
-      <c r="G41" s="45"/>
+      <c r="G41" s="29"/>
       <c r="H41" s="2">
         <v>85.7</v>
       </c>
@@ -3634,13 +3648,13 @@
       <c r="N41" s="2"/>
       <c r="O41" s="3"/>
       <c r="P41" s="4"/>
-      <c r="Q41" s="36"/>
+      <c r="Q41" s="26"/>
       <c r="R41" s="3"/>
-      <c r="S41" s="45"/>
+      <c r="S41" s="29"/>
       <c r="T41" s="2"/>
       <c r="U41" s="3"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="36"/>
+      <c r="W41" s="26"/>
       <c r="X41" s="3"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4">
@@ -3658,13 +3672,13 @@
         <v>1906.4</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="37">
+      <c r="E42" s="27">
         <v>76.900000000000006</v>
       </c>
       <c r="F42" s="7">
         <v>1847.4</v>
       </c>
-      <c r="G42" s="46"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="6">
         <v>95.2</v>
       </c>
@@ -3680,13 +3694,13 @@
       <c r="N42" s="6"/>
       <c r="O42" s="7"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="37"/>
+      <c r="Q42" s="27"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="46"/>
+      <c r="S42" s="30"/>
       <c r="T42" s="6"/>
       <c r="U42" s="7"/>
       <c r="V42" s="8"/>
-      <c r="W42" s="37"/>
+      <c r="W42" s="27"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8">
@@ -3697,57 +3711,60 @@
       <c r="A44" s="15" t="s">
         <v>8</v>
       </c>
+      <c r="U44" s="47" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="46" spans="1:26" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="26" t="s">
+      <c r="B46" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
     </row>
     <row r="47" spans="1:26" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="22" t="s">
+      <c r="E48" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B49" s="2">
@@ -3761,7 +3778,7 @@
         <f>C49/1000</f>
         <v>0.32</v>
       </c>
-      <c r="E49" s="29">
+      <c r="E49" s="21">
         <f>C49/9.81</f>
         <v>32.619775739041792</v>
       </c>
@@ -3778,7 +3795,7 @@
         <f t="shared" ref="D50:D57" si="1">C50/1000</f>
         <v>0.4</v>
       </c>
-      <c r="E50" s="29">
+      <c r="E50" s="21">
         <f t="shared" ref="E50:E57" si="2">C50/9.81</f>
         <v>40.774719673802238</v>
       </c>
@@ -3795,7 +3812,7 @@
         <f t="shared" si="1"/>
         <v>0.63</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="21">
         <f t="shared" si="2"/>
         <v>64.220183486238525</v>
       </c>
@@ -3812,7 +3829,7 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="E52" s="29">
+      <c r="E52" s="21">
         <f t="shared" si="2"/>
         <v>81.549439347604476</v>
       </c>
@@ -3829,7 +3846,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E53" s="29">
+      <c r="E53" s="21">
         <f t="shared" si="2"/>
         <v>101.9367991845056</v>
       </c>
@@ -3846,7 +3863,7 @@
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="21">
         <f t="shared" si="2"/>
         <v>127.42099898063201</v>
       </c>
@@ -3863,7 +3880,7 @@
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="E55" s="29">
+      <c r="E55" s="21">
         <f t="shared" si="2"/>
         <v>163.09887869520895</v>
       </c>
@@ -3880,7 +3897,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E56" s="29">
+      <c r="E56" s="21">
         <f t="shared" si="2"/>
         <v>203.87359836901121</v>
       </c>
@@ -3897,7 +3914,7 @@
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="21">
         <f t="shared" si="2"/>
         <v>254.84199796126401</v>
       </c>
@@ -3917,16 +3934,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E7:G7"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="T6:V6"/>
@@ -3935,6 +3942,16 @@
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="N7:P7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:Z42">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -3946,8 +3963,14 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="U44" r:id="rId1" xr:uid="{E351B649-C1C8-4E81-A9FA-A96CD943E3BD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="8" scale="80" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;Rhttp://www.imeconsultants.com.au</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>